--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3094.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3094.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.410022799901274</v>
+        <v>1.254929423332214</v>
       </c>
       <c r="B1">
-        <v>2.663559007801497</v>
+        <v>2.40125036239624</v>
       </c>
       <c r="C1">
-        <v>3.172346878280576</v>
+        <v>4.118087291717529</v>
       </c>
       <c r="D1">
-        <v>3.756136230594162</v>
+        <v>2.747961759567261</v>
       </c>
       <c r="E1">
-        <v>2.12175118237856</v>
+        <v>1.355506300926208</v>
       </c>
     </row>
   </sheetData>
